--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Mixed Connective Tissue Disease_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Mixed Connective Tissue Disease_spec_overall.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature in Mixed Connective Tissue Disease, indicating vascular involvement.</t>
+          <t>Raynaud's phenomenon is a common feature of Mixed Connective Tissue Disease (MCTD) and is often used as a diagnostic criterion.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Hand thickness reported is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This suggests a non-inflammatory cause of symptoms, which is less consistent with Mixed Connective Tissue Disease.</t>
+          <t>Hand thickness is often seen in MCTD due to sclerodactyly, and its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are often associated with Mixed Connective Tissue Disease and suggest skin involvement.</t>
+          <t>Telangiectasias can be associated with connective tissue diseases, including MCTD, and their presence supports the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Finger ulcers reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more indicative of gastroesophageal reflux disease rather than Mixed Connective Tissue Disease.</t>
+          <t>Finger ulcers can be a complication of Raynaud's phenomenon in MCTD, and their absence may suggest a different diagnosis.</t>
         </is>
       </c>
     </row>
@@ -510,39 +510,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This type of hand pain can indicate underlying connective tissue disease, which is characteristic of Mixed Connective Tissue Disease.</t>
+          <t>Disproportionate hand pain can be indicative of inflammatory processes seen in MCTD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Weakness reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms are typically not associated with Mixed Connective Tissue Disease.</t>
+          <t>Muscle weakness is a common symptom in MCTD due to myositis, and its absence is a point against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia can occur in Mixed Connective Tissue Disease due to esophageal involvement.</t>
+          <t>Dysphagia, especially for solids, can occur in MCTD due to esophageal involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Multiple symmetric joints hurt is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests no laryngeal involvement, which can occur in connective tissue diseases.</t>
+          <t>Arthralgia or arthritis, often symmetric, is common in MCTD, and its absence is a negative indicator.</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can be a sign of systemic disease, including Mixed Connective Tissue Disease.</t>
+          <t>Unintentional weight loss can be a sign of systemic involvement in connective tissue diseases like MCTD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Morning stiffness is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of cough may indicate that respiratory involvement is not present, which is often seen in Mixed Connective Tissue Disease.</t>
+          <t>Morning stiffness is a typical feature of inflammatory arthritis seen in MCTD, and its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -612,110 +612,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mixed Connective Tissue Disease is more prevalent in females, which supports the likelihood of this diagnosis.</t>
+          <t>Mixed Connective Tissue Disease (MCTD) is more common in females, which supports the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Absence of environmental allergies.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of prior radiation treatment reduces the likelihood of secondary conditions that could mimic or overlap with Mixed Connective Tissue Disease.</t>
+          <t>Environmental allergies are not directly related to MCTD, but their absence does not strongly argue against MCTD.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mixed Connective Tissue Disease commonly presents in middle-aged individuals, making this finding supportive of the diagnosis.</t>
+          <t>MCTD often presents in middle-aged individuals, which supports the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>Absence of asthma.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease suggests a lower risk for cardiovascular complications often seen in patients with Mixed Connective Tissue Disease.</t>
+          <t>Asthma is not typically associated with MCTD, so its absence does not strongly argue against MCTD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly indicative, the presence of hypertension treatment may suggest underlying vascular issues, which can be associated with connective tissue diseases.</t>
+          <t>Amlodipine is sometimes used to manage Raynaud's phenomenon, which can be associated with MCTD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Previously diagnosed Peripheral Artery Disease is absent</t>
+          <t>Absence of eczema.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of peripheral artery disease indicates a lower likelihood of vascular complications associated with Mixed Connective Tissue Disease.</t>
+          <t>Eczema is not typically associated with MCTD, so its absence does not strongly argue against MCTD.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of alcohol use disorder may indicate a healthier lifestyle, which can be more common in patients with autoimmune conditions like Mixed Connective Tissue Disease.</t>
+          <t>While not directly indicative of MCTD, the absence of hypertension may suggest a different etiology for symptoms that could be related to MCTD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Hyperlipidemia is absent</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of hyperlipidemia suggests a lower risk for metabolic syndrome, which can be associated with autoimmune diseases.</t>
+          <t>The absence of myocardial infarction does not strongly argue against MCTD, as cardiovascular events are not primary features of MCTD.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use, the absence of nicotine dependence may suggest a lower risk profile for chronic diseases, aligning with the demographic of Mixed Connective Tissue Disease patients.</t>
+          <t>The absence of type 2 diabetes reduces the likelihood of symptoms being attributed to diabetic complications, which can mimic some MCTD symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Absence of prior stroke.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of hypertension may indicate a lower risk for cardiovascular issues, which can be more prevalent in patients with Mixed Connective Tissue Disease.</t>
+          <t>The absence of stroke does not strongly argue against MCTD, as cerebrovascular events are not primary features of MCTD.</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate symptoms in patients with Mixed Connective Tissue Disease, making it a relevant factor.</t>
+          <t>Social stress can exacerbate autoimmune conditions, including Mixed Connective Tissue Disease, by potentially triggering or worsening symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases, particularly Rheumatoid Arthritis, is often associated with Mixed Connective Tissue Disease, and its absence weakens the likelihood.</t>
+          <t>A family history of autoimmune diseases like Rheumatoid Arthritis can increase the risk of Mixed Connective Tissue Disease, so its absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -790,17 +790,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with autoimmune diseases, including Mixed Connective Tissue Disease, potentially increasing the risk.</t>
+          <t>While not directly linked, prior tobacco use can contribute to autoimmune disease risk, including conditions like Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lower exposure to infections or environmental triggers that can exacerbate autoimmune conditions.</t>
+          <t>Current tobacco use is a known risk factor for autoimmune diseases, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -812,39 +812,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardiovascular issues can be more prevalent in patients with autoimmune diseases, including Mixed Connective Tissue Disease.</t>
+          <t>Cardiovascular issues can be associated with autoimmune diseases, though this is a weaker link for Mixed Connective Tissue Disease specifically.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures suggests no recent stressors or triggers that could lead to an exacerbation of symptoms.</t>
+          <t>While not directly related, a family history of cancer can sometimes be associated with autoimmune conditions, so its absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of cancer in the family may suggest a lower risk for certain autoimmune diseases, but it does not directly support Mixed Connective Tissue Disease.</t>
+          <t>The absence of a family history of Rheumatoid Arthritis does not strongly support Mixed Connective Tissue Disease, but it does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower risk for certain autoimmune conditions, including Mixed Connective Tissue Disease.</t>
+          <t>Recent travel can sometimes expose individuals to infections or stressors that might trigger autoimmune conditions, so its absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a healthier lifestyle, which can be a positive factor in managing autoimmune diseases.</t>
+          <t>The absence of alcohol use is neutral but can be slightly supportive as alcohol can exacerbate autoimmune conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current absence of tobacco use may suggest a lower risk profile for developing autoimmune diseases, including Mixed Connective Tissue Disease.</t>
+          <t>Gestational complications can sometimes be associated with autoimmune conditions, so their absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -914,110 +914,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a common finding in Mixed Connective Tissue Disease, indicating vascular involvement.</t>
+          <t>Hyperlipidemia can be associated with autoimmune diseases, including Mixed Connective Tissue Disease, although it is not specific.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Joint swelling is a common feature of Mixed Connective Tissue Disease; its absence strongly suggests that the disease is not present.</t>
+          <t>A strong positive ANA is a key diagnostic marker for Mixed Connective Tissue Disease, so its absence is significant evidence against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can be associated with systemic diseases, including Mixed Connective Tissue Disease, suggesting an underlying inflammatory process.</t>
+          <t>While a strong positive ANA is typically present in Mixed Connective Tissue Disease, its absence does not completely rule out the disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Enlargement of knuckles, finger deformities, or deviation of fingers is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>These findings are indicative of inflammatory arthritis, which is often seen in Mixed Connective Tissue Disease; their absence argues against the diagnosis.</t>
+          <t>The absence of interstitial lung disease, which is common in Mixed Connective Tissue Disease, argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While Raynaud's is often present, its absence does not rule out Mixed Connective Tissue Disease, as some patients may not exhibit this symptom.</t>
+          <t>Aspiration is not a typical finding in Mixed Connective Tissue Disease, so its absence does not strongly support or refute the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules are often associated with Mixed Connective Tissue Disease; their absence suggests a lower likelihood of this diagnosis.</t>
+          <t>While not specific to Mixed Connective Tissue Disease, the absence of a widened mediastinum does not support the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice may suggest that there is no significant involvement of the larynx, which can occur in some connective tissue diseases.</t>
+          <t>Interstitial lung disease is a common finding in Mixed Connective Tissue Disease, so its absence does not support the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Muscle weakness can be a feature of Mixed Connective Tissue Disease; its absence may indicate that the disease is not present.</t>
+          <t>Aspiration is not a typical feature of Mixed Connective Tissue Disease, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of cough may indicate that there is no pulmonary involvement, which can be seen in some cases of Mixed Connective Tissue Disease.</t>
+          <t>A widened mediastinum is not typically associated with Mixed Connective Tissue Disease, so its absence is not strongly supportive.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Finger ulcers are a specific manifestation of vascular compromise in Mixed Connective Tissue Disease; their absence suggests a lower likelihood of the condition.</t>
+          <t>Hyperlipidemia is not specific to Mixed Connective Tissue Disease and can occur in many conditions, so it does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
